--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.65445385857304</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N2">
-        <v>1.65445385857304</v>
+        <v>0.247237</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04727005612861496</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04727005612861496</v>
       </c>
       <c r="Q2">
-        <v>49.50459424923756</v>
+        <v>2.578734104477778</v>
       </c>
       <c r="R2">
-        <v>49.50459424923756</v>
+        <v>23.2086069403</v>
       </c>
       <c r="S2">
-        <v>0.02376692170035484</v>
+        <v>0.0009580658503022409</v>
       </c>
       <c r="T2">
-        <v>0.02376692170035484</v>
+        <v>0.0009580658503022409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>168.327517975674</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>168.327517975674</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.1337017862189803</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.1337017862189803</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.65445385857304</v>
+        <v>1.661024</v>
       </c>
       <c r="N3">
-        <v>1.65445385857304</v>
+        <v>4.983072</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9527299438713851</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.952729943871385</v>
       </c>
       <c r="Q3">
-        <v>278.4901116188766</v>
+        <v>51.97449294186666</v>
       </c>
       <c r="R3">
-        <v>278.4901116188766</v>
+        <v>467.7704364768</v>
       </c>
       <c r="S3">
-        <v>0.1337017862189803</v>
+        <v>0.01930985699064982</v>
       </c>
       <c r="T3">
-        <v>0.1337017862189803</v>
+        <v>0.01930985699064981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>591.1917750767039</v>
+        <v>170.232249</v>
       </c>
       <c r="H4">
-        <v>591.1917750767039</v>
+        <v>510.696747</v>
       </c>
       <c r="I4">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J4">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.65445385857304</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N4">
-        <v>1.65445385857304</v>
+        <v>0.247237</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04727005612861496</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04727005612861496</v>
       </c>
       <c r="Q4">
-        <v>978.0995134322976</v>
+        <v>14.029236848671</v>
       </c>
       <c r="R4">
-        <v>978.0995134322976</v>
+        <v>126.263131638039</v>
       </c>
       <c r="S4">
-        <v>0.4695809531103998</v>
+        <v>0.005212221262818196</v>
       </c>
       <c r="T4">
-        <v>0.4695809531103998</v>
+        <v>0.005212221262818196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>436.236476144538</v>
+        <v>170.232249</v>
       </c>
       <c r="H5">
-        <v>436.236476144538</v>
+        <v>510.696747</v>
       </c>
       <c r="I5">
-        <v>0.3465006599980123</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J5">
-        <v>0.3465006599980123</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65445385857304</v>
+        <v>1.661024</v>
       </c>
       <c r="N5">
-        <v>1.65445385857304</v>
+        <v>4.983072</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9527299438713851</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.952729943871385</v>
       </c>
       <c r="Q5">
-        <v>721.7331212076368</v>
+        <v>282.759851162976</v>
       </c>
       <c r="R5">
-        <v>721.7331212076368</v>
+        <v>2544.838660466784</v>
       </c>
       <c r="S5">
-        <v>0.3465006599980123</v>
+        <v>0.1050525359576196</v>
       </c>
       <c r="T5">
-        <v>0.3465006599980123</v>
+        <v>0.1050525359576196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>603.9765116666666</v>
+      </c>
+      <c r="H6">
+        <v>1811.929535</v>
+      </c>
+      <c r="I6">
+        <v>0.391214495590503</v>
+      </c>
+      <c r="J6">
+        <v>0.391214495590503</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.08241233333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.247237</v>
+      </c>
+      <c r="O6">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="P6">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="Q6">
+        <v>49.77511360497722</v>
+      </c>
+      <c r="R6">
+        <v>447.976022444795</v>
+      </c>
+      <c r="S6">
+        <v>0.01849273116489087</v>
+      </c>
+      <c r="T6">
+        <v>0.01849273116489087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>33.299546240622</v>
-      </c>
-      <c r="H6">
-        <v>33.299546240622</v>
-      </c>
-      <c r="I6">
-        <v>0.02644967897225281</v>
-      </c>
-      <c r="J6">
-        <v>0.02644967897225281</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.65445385857304</v>
-      </c>
-      <c r="N6">
-        <v>1.65445385857304</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>55.09256276652843</v>
-      </c>
-      <c r="R6">
-        <v>55.09256276652843</v>
-      </c>
-      <c r="S6">
-        <v>0.02644967897225281</v>
-      </c>
-      <c r="T6">
-        <v>0.02644967897225281</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>603.9765116666666</v>
+      </c>
+      <c r="H7">
+        <v>1811.929535</v>
+      </c>
+      <c r="I7">
+        <v>0.391214495590503</v>
+      </c>
+      <c r="J7">
+        <v>0.391214495590503</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.661024</v>
+      </c>
+      <c r="N7">
+        <v>4.983072</v>
+      </c>
+      <c r="O7">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P7">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q7">
+        <v>1003.219481314613</v>
+      </c>
+      <c r="R7">
+        <v>9028.97533183152</v>
+      </c>
+      <c r="S7">
+        <v>0.3727217644256121</v>
+      </c>
+      <c r="T7">
+        <v>0.3727217644256121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>694.886846</v>
+      </c>
+      <c r="H8">
+        <v>2084.660538</v>
+      </c>
+      <c r="I8">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="J8">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.08241233333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.247237</v>
+      </c>
+      <c r="O8">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="P8">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="Q8">
+        <v>57.26724638150067</v>
+      </c>
+      <c r="R8">
+        <v>515.4052174335061</v>
+      </c>
+      <c r="S8">
+        <v>0.02127625062378089</v>
+      </c>
+      <c r="T8">
+        <v>0.02127625062378089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>694.886846</v>
+      </c>
+      <c r="H9">
+        <v>2084.660538</v>
+      </c>
+      <c r="I9">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="J9">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.661024</v>
+      </c>
+      <c r="N9">
+        <v>4.983072</v>
+      </c>
+      <c r="O9">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P9">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q9">
+        <v>1154.223728490304</v>
+      </c>
+      <c r="R9">
+        <v>10388.01355641274</v>
+      </c>
+      <c r="S9">
+        <v>0.4288237146881134</v>
+      </c>
+      <c r="T9">
+        <v>0.4288237146881133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H10">
+        <v>130.391377</v>
+      </c>
+      <c r="I10">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J10">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.08241233333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.247237</v>
+      </c>
+      <c r="O10">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="P10">
+        <v>0.04727005612861496</v>
+      </c>
+      <c r="Q10">
+        <v>3.581952541705445</v>
+      </c>
+      <c r="R10">
+        <v>32.237572875349</v>
+      </c>
+      <c r="S10">
+        <v>0.001330787226822778</v>
+      </c>
+      <c r="T10">
+        <v>0.001330787226822777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H11">
+        <v>130.391377</v>
+      </c>
+      <c r="I11">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J11">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.661024</v>
+      </c>
+      <c r="N11">
+        <v>4.983072</v>
+      </c>
+      <c r="O11">
+        <v>0.9527299438713851</v>
+      </c>
+      <c r="P11">
+        <v>0.952729943871385</v>
+      </c>
+      <c r="Q11">
+        <v>72.19440219668267</v>
+      </c>
+      <c r="R11">
+        <v>649.749619770144</v>
+      </c>
+      <c r="S11">
+        <v>0.02682207180939031</v>
+      </c>
+      <c r="T11">
+        <v>0.0268220718093903</v>
       </c>
     </row>
   </sheetData>
